--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5D857E-F400-4762-AF77-0C1916C8FA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B65B0-82B7-4581-9757-37D27FFEAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="167">
   <si>
     <t>Row</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Reading: 6.1 and 6.2</t>
   </si>
   <si>
-    <t>Submit team stuff, questions via email</t>
-  </si>
-  <si>
     <t>Regression: Mechanics</t>
   </si>
   <si>
@@ -555,6 +552,12 @@
   </si>
   <si>
     <t>update the descript next year</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1a2UYrZaMYZEhqWKt6b5iNsSzfjKv0jide3h69qIhqy0/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Submit team stuff, questions via email *and* this Google Sheet</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J1" s="45" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1860,7 +1863,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>16</v>
@@ -1891,7 +1894,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>19</v>
@@ -1927,7 +1930,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>19</v>
@@ -1963,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>19</v>
@@ -2099,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>25</v>
@@ -2167,7 +2170,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>25</v>
@@ -2200,7 +2203,7 @@
         <v>45680</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="13" t="s">
@@ -2395,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>25</v>
@@ -2463,7 +2466,7 @@
         <v>34</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>25</v>
@@ -2552,10 +2555,10 @@
         <v>45687</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>36</v>
@@ -3365,7 +3368,7 @@
         <v>57</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>19</v>
@@ -3732,11 +3735,11 @@
         <v>45697</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J78" s="3">
         <v>19</v>
@@ -5478,7 +5481,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="15"/>
       <c r="H140" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I140" s="13" t="s">
         <v>25</v>
@@ -5715,8 +5718,8 @@
       <c r="C149" s="1">
         <v>9</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>14</v>
+      <c r="D149" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="41">
@@ -5724,9 +5727,11 @@
         <v>45736</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H149" s="38"/>
+        <v>166</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>165</v>
+      </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3">
         <v>58</v>
@@ -5756,7 +5761,7 @@
         <v>45736</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -5788,7 +5793,7 @@
         <v>45737</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="3"/>
@@ -5820,7 +5825,7 @@
         <v>45738</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H152" s="36"/>
       <c r="I152" s="10"/>
@@ -5922,7 +5927,7 @@
         <v>45740</v>
       </c>
       <c r="G156" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="10"/>
@@ -5954,7 +5959,7 @@
         <v>45741</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H157" s="35"/>
       <c r="I157" s="3"/>
@@ -5986,7 +5991,7 @@
         <v>45741</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -6018,7 +6023,7 @@
         <v>45739</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="10"/>
@@ -6050,7 +6055,7 @@
         <v>45743</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -6082,7 +6087,7 @@
         <v>45746</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="3"/>
@@ -6114,7 +6119,7 @@
         <v>45747</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H162" s="36"/>
       <c r="I162" s="10"/>
@@ -6216,7 +6221,7 @@
         <v>45748</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -6248,7 +6253,7 @@
         <v>45750</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -6280,7 +6285,7 @@
         <v>45750</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -6312,7 +6317,7 @@
         <v>45749</v>
       </c>
       <c r="G169" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="10"/>
@@ -6390,7 +6395,7 @@
         <v>45755</v>
       </c>
       <c r="G172" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="3"/>
@@ -6422,7 +6427,7 @@
         <v>45755</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -6454,7 +6459,7 @@
         <v>45757</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -6486,7 +6491,7 @@
         <v>45757</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -6540,7 +6545,7 @@
         <v>45758</v>
       </c>
       <c r="G177" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="3"/>
@@ -6572,7 +6577,7 @@
         <v>45758</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="13" t="s">
@@ -6654,7 +6659,7 @@
         <v>45762</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H181" s="36"/>
       <c r="I181" s="10"/>
@@ -6686,7 +6691,7 @@
         <v>45762</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -6718,7 +6723,7 @@
         <v>45762</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -6750,7 +6755,7 @@
         <v>45764</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -6782,7 +6787,7 @@
         <v>45764</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -6814,7 +6819,7 @@
         <v>45765</v>
       </c>
       <c r="G186" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="3"/>
@@ -6894,7 +6899,7 @@
         <v>45767</v>
       </c>
       <c r="G189" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="3"/>
@@ -6926,7 +6931,7 @@
         <v>45768</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H190" s="36"/>
       <c r="I190" s="3"/>
@@ -6958,7 +6963,7 @@
         <v>45768</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H191" s="36"/>
       <c r="I191" s="3"/>
@@ -6990,7 +6995,7 @@
         <v>45769</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -7044,7 +7049,7 @@
         <v>45770</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="3"/>
@@ -7076,7 +7081,7 @@
         <v>45771</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -7156,7 +7161,7 @@
         <v>45776</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -7188,7 +7193,7 @@
         <v>45774</v>
       </c>
       <c r="G199" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="10"/>
@@ -7220,7 +7225,7 @@
         <v>45778</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -7252,7 +7257,7 @@
         <v>45778</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="3"/>
@@ -7284,7 +7289,7 @@
         <v>45778</v>
       </c>
       <c r="G202" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="3"/>
@@ -7316,7 +7321,7 @@
         <v>45779</v>
       </c>
       <c r="G203" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="3"/>
@@ -7348,7 +7353,7 @@
         <v>45779</v>
       </c>
       <c r="G204" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="3"/>
@@ -7400,7 +7405,7 @@
         <v>45794</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="13" t="s">
